--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1560309.979426492</v>
+        <v>1558422.39791009</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>26.16482379965406</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>124.2196940949807</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>220.9066963904441</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>341.4691678678095</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>394.5289683486419</v>
       </c>
       <c r="H8" t="n">
-        <v>84.11892151122279</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295497</v>
+        <v>155.8860385675339</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.0611703421894</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.09124482852427</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901476</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.3514698018586</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>142.4312553669866</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664933</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>88.99177052521367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829618221</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>55.51848634875063</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958965</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965547</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801228</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02976576477560406</v>
+        <v>42.20569823125197</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523589</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789718</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2439.51379891374</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2185.752013551832</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2185.752013551832</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2185.752013551832</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1812.286255290752</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>551.822117562146</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>382.8223173004784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>225.0739447330085</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>63.25696827225937</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>764.6872557005402</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>757.7417549513367</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1536.199889775781</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1146.060557799969</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4753,16 +4753,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508784</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="C8" t="n">
-        <v>1865.381229508784</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="D8" t="n">
-        <v>1507.115530902033</v>
+        <v>1325.851540579792</v>
       </c>
       <c r="E8" t="n">
-        <v>1121.327278303789</v>
+        <v>940.063287981548</v>
       </c>
       <c r="F8" t="n">
-        <v>710.3413735141817</v>
+        <v>933.1177872323445</v>
       </c>
       <c r="G8" t="n">
-        <v>292.3775654123685</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548717</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548717</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572906</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036449</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.060406649891</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>148.509676183284</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277967</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
         <v>2317.834075963124</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>337.0962993456004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,34 +5288,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5516821961689</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>121.5516821961689</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500522</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="X16" t="n">
-        <v>492.4609007520348</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5498,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977053</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1131.26090043126</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V19" t="n">
-        <v>876.5764122253732</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W19" t="n">
-        <v>587.1592421884127</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>359.1696912903953</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.1696912903953</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,22 +5926,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
         <v>614.6238123952638</v>
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,10 +6002,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U25" t="n">
-        <v>1185.240178049213</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.240178049213</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="W25" t="n">
-        <v>895.8230080122524</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6209,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.5883316929531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>471.5883316929531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>321.4716922806174</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>800.6837097077196</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>545.9992215018327</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617345006</v>
+        <v>545.9992215018328</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364833</v>
+        <v>318.0096706038155</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.5883316929531</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,16 +6458,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030871</v>
+        <v>439.5324299542159</v>
       </c>
       <c r="C31" t="n">
-        <v>452.244711856551</v>
+        <v>326.3571123076796</v>
       </c>
       <c r="D31" t="n">
-        <v>452.244711856551</v>
+        <v>232.0013381767144</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0924835555286</v>
+        <v>139.8491098756919</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818912</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652464</v>
+        <v>730.4517433652444</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030871</v>
+        <v>565.4200295030851</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>474.8900731662869</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108346</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229688</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506741</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083222</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504529</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103146</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
         <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045222</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010332</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>229.0333923118336</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>378.1030765138935</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,10 +7585,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,13 +7822,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951775</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>9.900512684485392</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>176.7176547498456</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>104.8749102765749</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>182.0340742867941</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>29.47535963978169</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583715</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119833</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302028</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.83804904622809</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>297.3877236703341</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>9.900512684485932</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>21.55430267602293</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>121.329803194407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>14.45548819888958</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.8060970315907</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>197.2455818733637</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.1743415069728</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>90.91547629781854</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>124.4198406026808</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.18802562959863</v>
+        <v>48.01209316312239</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897924</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571509</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1.747935129969846e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>963160.9607268167</v>
+        <v>963160.9607268166</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="F2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="H2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>467845.4579470613</v>
+        <v>467845.4579470612</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="O2" t="n">
         <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.820286676476826e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284545</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086705</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284543</v>
+        <v>44162.60530284537</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159207</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007497</v>
@@ -26439,25 +26439,25 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007397</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020393</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.988321912</v>
+        <v>-348644.9883219118</v>
       </c>
       <c r="C6" t="n">
-        <v>241322.8908926327</v>
+        <v>241322.8908926325</v>
       </c>
       <c r="D6" t="n">
-        <v>241322.8908926322</v>
+        <v>241322.8908926328</v>
       </c>
       <c r="E6" t="n">
-        <v>-175380.6753832546</v>
+        <v>-175478.1345092274</v>
       </c>
       <c r="F6" t="n">
-        <v>349779.361093641</v>
+        <v>349681.9019676691</v>
       </c>
       <c r="G6" t="n">
-        <v>349779.361093641</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="H6" t="n">
-        <v>349779.3610936411</v>
+        <v>349681.9019676689</v>
       </c>
       <c r="I6" t="n">
-        <v>349779.361093641</v>
+        <v>349681.9019676687</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.1419010481</v>
+        <v>173258.6827750759</v>
       </c>
       <c r="K6" t="n">
-        <v>300973.289943789</v>
+        <v>300954.7962058547</v>
       </c>
       <c r="L6" t="n">
-        <v>333705.4861537426</v>
+        <v>333705.4861537423</v>
       </c>
       <c r="M6" t="n">
-        <v>209247.3777207725</v>
+        <v>209247.3777207722</v>
       </c>
       <c r="N6" t="n">
-        <v>344048.3929546094</v>
+        <v>344048.3929546093</v>
       </c>
       <c r="O6" t="n">
-        <v>344048.3929546094</v>
+        <v>344048.3929546093</v>
       </c>
       <c r="P6" t="n">
         <v>299885.7876517641</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,10 +26811,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855681</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>190.2834965580037</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>170.6111335945613</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>10.74592769735757</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>192.8774736303509</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28.26193281065952</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19.25520167215313</v>
       </c>
       <c r="H8" t="n">
-        <v>239.8038512531344</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594874</v>
+        <v>69.82361682150326</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="C31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="D31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="E31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="F31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="G31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="H31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="I31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="J31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="K31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="M31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="N31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="O31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="P31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="R31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="S31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="T31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="U31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="V31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="W31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="X31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,13 +33193,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33214,7 +33214,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33342,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33354,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33366,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33667,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33688,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33816,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33828,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33840,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34141,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34162,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34290,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34302,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34314,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939208</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>509.9122281478584</v>
+        <v>502.4808891147313</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>492.4584513372604</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>534.0986420439142</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,19 +36841,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>362.6699330377946</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37078,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>213.4866460137764</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
@@ -37233,10 +37233,10 @@
         <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,19 +37315,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>133.147778637927</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37552,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>265.0957540022525</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37789,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>504.4811386018588</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>216.9939276160106</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
